--- a/20140604_emd/강원도/05_구시군의원-철원군-철원군가선거구.xlsx
+++ b/20140604_emd/강원도/05_구시군의원-철원군-철원군가선거구.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="840" windowWidth="17415" windowHeight="11445"/>
+    <workbookView xWindow="1320" yWindow="840" windowWidth="17420" windowHeight="11440"/>
   </bookViews>
   <sheets>
     <sheet name="철원군의회의원선거(가선거구, 철원군)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -71,34 +76,6 @@
     <t>잘못 투입·구분된 투표지</t>
   </si>
   <si>
-    <t>새누리당강세용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새누리당배병인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새누리당이만재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새정치민주연합김갑수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속한종문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속박종만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속정동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무효투표수(나)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,20 +92,45 @@
   <si>
     <t>개표진행상황(철원군의회의원선거, 가선거구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새누리당
+강세용</t>
+  </si>
+  <si>
+    <t>새누리당
+배병인</t>
+  </si>
+  <si>
+    <t>새누리당
+이만재</t>
+  </si>
+  <si>
+    <t>새정치민주연합
+김갑수</t>
+  </si>
+  <si>
+    <t>무소속
+한종문</t>
+  </si>
+  <si>
+    <t>무소속
+박종만</t>
+  </si>
+  <si>
+    <t>무소속
+정동화</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -143,7 +145,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -152,10 +154,17 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,16 +191,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,7 +221,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -227,7 +236,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -254,9 +263,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,22 +560,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="15" width="13.625" customWidth="1"/>
+    <col min="1" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="40.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -587,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>4</v>
@@ -603,7 +616,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
@@ -636,26 +649,26 @@
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="F4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="G4" s="14" t="s">
         <v>24</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>7</v>
@@ -1149,5 +1162,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>